--- a/Prototypes/Mungbean/Exp4observed.xlsx
+++ b/Prototypes/Mungbean/Exp4observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF0C1E-97F3-498B-9832-9B41C70A2A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BEFE19-2C77-449F-B321-7A12857348AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{DFA1900E-73BA-4D12-BFCE-0E19FBB234D5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFA1900E-73BA-4D12-BFCE-0E19FBB234D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -161,24 +161,6 @@
     <t>Soybean.leaf.dead.N</t>
   </si>
   <si>
-    <t>exp4SowMungbeanIRR</t>
-  </si>
-  <si>
-    <t>exp4SowMungbeanRF</t>
-  </si>
-  <si>
-    <t>exp4SowMungbeanRFIRR</t>
-  </si>
-  <si>
-    <t>exp4SowSoybeanIRR</t>
-  </si>
-  <si>
-    <t>exp4SowSoybeanRF</t>
-  </si>
-  <si>
-    <t>exp4SowSoybeanRFIRR</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
   </si>
   <si>
@@ -186,6 +168,24 @@
   </si>
   <si>
     <t>Yield</t>
+  </si>
+  <si>
+    <t>exp4WaterIrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp4WaterRF_IrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp4SowSoybeanIrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp4SowSoybeanRFIrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp4WaterRFCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp4SowSoybeanRFCultivarEmerald</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BF430E-E5F1-4941-87BB-E32BBECBCD11}">
   <dimension ref="A1:AQ310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,10 +593,10 @@
         <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5">
         <v>35864</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5">
         <v>35869</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
         <v>35877</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>35878</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <v>35879</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <v>35882</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5">
         <v>35888</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
         <v>35889</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5">
         <v>35890</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5">
         <v>35897</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5">
         <v>35899</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5">
         <v>35900</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>35901</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5">
         <v>35903</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5">
         <v>35904</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5">
         <v>35905</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5">
         <v>35907</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5">
         <v>35910</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5">
         <v>35912</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5">
         <v>35913</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5">
         <v>35914</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5">
         <v>35916</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5">
         <v>35917</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5">
         <v>35918</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5">
         <v>35920</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5">
         <v>35921</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5">
         <v>35923</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5">
         <v>35925</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" s="5">
         <v>35928</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5">
         <v>35930</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5">
         <v>35931</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" s="5">
         <v>35932</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34" s="5">
         <v>35933</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="5">
         <v>35934</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36" s="5">
         <v>35936</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="37" spans="1:42">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" s="5">
         <v>35938</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5">
         <v>35939</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="5">
         <v>35941</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="40" spans="1:42">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5">
         <v>35943</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="41" spans="1:42">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" s="5">
         <v>35944</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="42" spans="1:42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5">
         <v>35945</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="43" spans="1:42">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" s="5">
         <v>35946</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="44" spans="1:42">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" s="5">
         <v>35948</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="45" spans="1:42">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>35949</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="46" spans="1:42">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>35953</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="47" spans="1:42">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="5">
         <v>35954</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="48" spans="1:42">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48" s="5">
         <v>35955</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5">
         <v>35956</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>35958</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B51" s="5">
         <v>35959</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B52" s="5">
         <v>35960</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B53" s="5">
         <v>35961</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B54" s="5">
         <v>35962</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B55" s="5">
         <v>35964</v>
@@ -2177,7 +2177,7 @@
         <v>2170</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F55" s="6">
         <v>121.787219005681</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B56" s="5">
         <v>35971</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B57" s="5">
         <v>35972</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B58" s="5">
         <v>35973</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B59" s="5">
         <v>35975</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B60" s="5">
         <v>35864</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B61" s="5">
         <v>35869</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B62" s="5">
         <v>35876</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B63" s="5">
         <v>35877</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B64" s="5">
         <v>35878</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B65" s="5">
         <v>35879</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="66" spans="1:36">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B66" s="5">
         <v>35882</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B67" s="5">
         <v>35883</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="68" spans="1:36">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B68" s="5">
         <v>35888</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B69" s="5">
         <v>35889</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B70" s="5">
         <v>35890</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B71" s="5">
         <v>35891</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B72" s="5">
         <v>35897</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B73" s="5">
         <v>35899</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B74" s="5">
         <v>35900</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B75" s="5">
         <v>35901</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B76" s="5">
         <v>35902</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B77" s="5">
         <v>35904</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B78" s="5">
         <v>35907</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B79" s="5">
         <v>35910</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B80" s="5">
         <v>35913</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="81" spans="1:36">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B81" s="5">
         <v>35915</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="82" spans="1:36">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B82" s="5">
         <v>35917</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="83" spans="1:36">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B83" s="5">
         <v>35918</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B84" s="5">
         <v>35922</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="85" spans="1:36">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B85" s="5">
         <v>35923</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="86" spans="1:36">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B86" s="5">
         <v>35926</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="87" spans="1:36">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B87" s="5">
         <v>35927</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="88" spans="1:36" ht="13.5" customHeight="1">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B88" s="5">
         <v>35928</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="89" spans="1:36">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B89" s="5">
         <v>35930</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="90" spans="1:36">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B90" s="5">
         <v>35932</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="91" spans="1:36">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B91" s="5">
         <v>35933</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="92" spans="1:36">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B92" s="5">
         <v>35934</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="93" spans="1:36">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B93" s="5">
         <v>35936</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B94" s="5">
         <v>35937</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="95" spans="1:36">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B95" s="5">
         <v>35938</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B96" s="5">
         <v>35941</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="97" spans="1:42">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B97" s="5">
         <v>35942</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="98" spans="1:42">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B98" s="5">
         <v>35943</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="99" spans="1:42">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B99" s="5">
         <v>35944</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="100" spans="1:42">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B100" s="5">
         <v>35945</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="101" spans="1:42">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B101" s="5">
         <v>35946</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="102" spans="1:42">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B102" s="5">
         <v>35947</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="103" spans="1:42">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B103" s="5">
         <v>35950</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="104" spans="1:42">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B104" s="5">
         <v>35951</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="105" spans="1:42">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B105" s="5">
         <v>35954</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="106" spans="1:42">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B106" s="5">
         <v>35955</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="107" spans="1:42">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B107" s="5">
         <v>35956</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="108" spans="1:42">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B108" s="5">
         <v>35957</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="109" spans="1:42">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B109" s="5">
         <v>35958</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="110" spans="1:42">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B110" s="5">
         <v>35959</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="111" spans="1:42">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B111" s="5">
         <v>35960</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="112" spans="1:42">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B112" s="5">
         <v>35961</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="113" spans="1:43">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B113" s="5">
         <v>35963</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="114" spans="1:43">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B114" s="5">
         <v>35964</v>
@@ -3905,7 +3905,7 @@
         <v>1710</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F114" s="6">
         <v>122</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="115" spans="1:43">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B115" s="5">
         <v>35965</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="116" spans="1:43">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B116" s="5">
         <v>35966</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="117" spans="1:43">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B117" s="5">
         <v>35970</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="118" spans="1:43">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B118" s="5">
         <v>35971</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="119" spans="1:43">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B119" s="5">
         <v>35972</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="120" spans="1:43">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B120" s="5">
         <v>35973</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="121" spans="1:43">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B121" s="5">
         <v>35974</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="122" spans="1:43">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B122" s="5">
         <v>35864</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="123" spans="1:43">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B123" s="5">
         <v>35869</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="124" spans="1:43">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B124" s="5">
         <v>35876</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="125" spans="1:43">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B125" s="5">
         <v>35877</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="126" spans="1:43">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B126" s="5">
         <v>35878</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="127" spans="1:43">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B127" s="5">
         <v>35879</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="128" spans="1:43">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B128" s="5">
         <v>35882</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="129" spans="1:36">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B129" s="5">
         <v>35883</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="130" spans="1:36">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B130" s="5">
         <v>35888</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="131" spans="1:36">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B131" s="5">
         <v>35889</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="132" spans="1:36">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B132" s="5">
         <v>35891</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B133" s="5">
         <v>35897</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B134" s="5">
         <v>35899</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B135" s="5">
         <v>35900</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B136" s="5">
         <v>35902</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B137" s="5">
         <v>35903</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B138" s="5">
         <v>35904</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B139" s="5">
         <v>35911</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B140" s="5">
         <v>35913</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="141" spans="1:36">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B141" s="5">
         <v>35915</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B142" s="5">
         <v>35917</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B143" s="5">
         <v>35918</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="144" spans="1:36">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B144" s="5">
         <v>35922</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B145" s="5">
         <v>35924</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B146" s="5">
         <v>35928</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B147" s="5">
         <v>35930</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B148" s="5">
         <v>35931</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B149" s="5">
         <v>35932</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B150" s="5">
         <v>35933</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B151" s="5">
         <v>35935</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B152" s="5">
         <v>35937</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B153" s="5">
         <v>35942</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B154" s="5">
         <v>35943</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B155" s="5">
         <v>35944</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B156" s="5">
         <v>35945</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B157" s="5">
         <v>35946</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B158" s="5">
         <v>35947</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B159" s="5">
         <v>35948</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B160" s="5">
         <v>35954</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="161" spans="1:43">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B161" s="5">
         <v>35955</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="162" spans="1:43">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B162" s="5">
         <v>35956</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="163" spans="1:43">
       <c r="A163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B163" s="5">
         <v>35958</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="164" spans="1:43">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B164" s="5">
         <v>35959</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="165" spans="1:43">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B165" s="5">
         <v>35960</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="166" spans="1:43">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B166" s="5">
         <v>35963</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="167" spans="1:43">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B167" s="5">
         <v>35964</v>
@@ -5333,7 +5333,7 @@
         <v>2140</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F167" s="6">
         <v>122</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="168" spans="1:43">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B168" s="5">
         <v>35971</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="169" spans="1:43">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B169" s="5">
         <v>35972</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="170" spans="1:43">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B170" s="5">
         <v>35973</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="171" spans="1:43">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B171" s="5">
         <v>35974</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="172" spans="1:43">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B172" s="5">
         <v>35976</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="173" spans="1:43">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B173" s="5">
         <v>35844</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="174" spans="1:43">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B174" s="5">
         <v>35847</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="175" spans="1:43">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B175" s="5">
         <v>35853</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="176" spans="1:43">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B176" s="5">
         <v>35858</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="177" spans="1:36">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B177" s="5">
         <v>35866</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="178" spans="1:36">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B178" s="5">
         <v>35867</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="179" spans="1:36">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B179" s="5">
         <v>35869</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="180" spans="1:36">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B180" s="5">
         <v>35871</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="181" spans="1:36">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B181" s="5">
         <v>35874</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="182" spans="1:36">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B182" s="5">
         <v>35877</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="183" spans="1:36">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B183" s="5">
         <v>35878</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="184" spans="1:36">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B184" s="5">
         <v>35879</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="185" spans="1:36">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B185" s="5">
         <v>35880</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B186" s="5">
         <v>35882</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="187" spans="1:36">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B187" s="5">
         <v>35886</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="188" spans="1:36">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B188" s="5">
         <v>35887</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="189" spans="1:36">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B189" s="5">
         <v>35888</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="190" spans="1:36">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B190" s="5">
         <v>35889</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="191" spans="1:36">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B191" s="5">
         <v>35890</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B192" s="5">
         <v>35891</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B193" s="5">
         <v>35893</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B194" s="5">
         <v>35894</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B195" s="5">
         <v>35896</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="196" spans="1:36">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B196" s="5">
         <v>35899</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B197" s="5">
         <v>35902</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="198" spans="1:36">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B198" s="5">
         <v>35903</v>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="199" spans="1:36">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B199" s="5">
         <v>35905</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B200" s="5">
         <v>35906</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="201" spans="1:36">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B201" s="5">
         <v>35907</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="202" spans="1:36">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B202" s="5">
         <v>35909</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="203" spans="1:36">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B203" s="5">
         <v>35911</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="204" spans="1:36">
       <c r="A204" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B204" s="5">
         <v>35914</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="205" spans="1:36">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B205" s="5">
         <v>35915</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="206" spans="1:36">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B206" s="5">
         <v>35917</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="207" spans="1:36">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B207" s="5">
         <v>35919</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="208" spans="1:36">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B208" s="5">
         <v>35920</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="209" spans="1:43">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B209" s="5">
         <v>35921</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="210" spans="1:43">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B210" s="5">
         <v>35922</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="211" spans="1:43">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B211" s="5">
         <v>35924</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="212" spans="1:43">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B212" s="5">
         <v>35926</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="213" spans="1:43">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B213" s="5">
         <v>35927</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="214" spans="1:43">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B214" s="5">
         <v>35928</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="215" spans="1:43">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B215" s="5">
         <v>35929</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="216" spans="1:43">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B216" s="5">
         <v>35931</v>
@@ -6683,7 +6683,7 @@
         <v>3780</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F216" s="6">
         <v>100</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="217" spans="1:43">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B217" s="5">
         <v>35932</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="218" spans="1:43">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B218" s="5">
         <v>35934</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="219" spans="1:43">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B219" s="5">
         <v>35844</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="220" spans="1:43">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B220" s="5">
         <v>35846</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="221" spans="1:43">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B221" s="5">
         <v>35853</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="222" spans="1:43">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B222" s="5">
         <v>35858</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="223" spans="1:43">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B223" s="5">
         <v>35865</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="224" spans="1:43">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B224" s="5">
         <v>35866</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="225" spans="1:36">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B225" s="5">
         <v>35867</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="226" spans="1:36">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B226" s="5">
         <v>35868</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="227" spans="1:36">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B227" s="5">
         <v>35869</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="228" spans="1:36">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B228" s="5">
         <v>35871</v>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="229" spans="1:36">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B229" s="5">
         <v>35874</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="230" spans="1:36">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B230" s="5">
         <v>35876</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="231" spans="1:36">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B231" s="5">
         <v>35877</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="232" spans="1:36">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B232" s="5">
         <v>35878</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="233" spans="1:36">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B233" s="5">
         <v>35879</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="234" spans="1:36">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B234" s="5">
         <v>35880</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="235" spans="1:36">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B235" s="5">
         <v>35881</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="236" spans="1:36">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B236" s="5">
         <v>35882</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="237" spans="1:36">
       <c r="A237" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B237" s="5">
         <v>35886</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="238" spans="1:36">
       <c r="A238" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B238" s="5">
         <v>35887</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="239" spans="1:36">
       <c r="A239" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B239" s="5">
         <v>35888</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="240" spans="1:36">
       <c r="A240" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B240" s="5">
         <v>35889</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="241" spans="1:42">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B241" s="5">
         <v>35890</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="242" spans="1:42">
       <c r="A242" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B242" s="5">
         <v>35891</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="243" spans="1:42">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B243" s="5">
         <v>35892</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="244" spans="1:42">
       <c r="A244" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B244" s="5">
         <v>35893</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="245" spans="1:42">
       <c r="A245" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B245" s="5">
         <v>35895</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="246" spans="1:42">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B246" s="5">
         <v>35896</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="247" spans="1:42">
       <c r="A247" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B247" s="5">
         <v>35898</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="248" spans="1:42">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B248" s="5">
         <v>35902</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="249" spans="1:42">
       <c r="A249" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B249" s="5">
         <v>35903</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="250" spans="1:42">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B250" s="5">
         <v>35904</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="251" spans="1:42">
       <c r="A251" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B251" s="5">
         <v>35905</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="252" spans="1:42">
       <c r="A252" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B252" s="5">
         <v>35906</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="253" spans="1:42">
       <c r="A253" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B253" s="5">
         <v>35907</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="254" spans="1:42">
       <c r="A254" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B254" s="5">
         <v>35908</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="255" spans="1:42">
       <c r="A255" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B255" s="5">
         <v>35909</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="256" spans="1:42">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B256" s="5">
         <v>35910</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="257" spans="1:43">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B257" s="5">
         <v>35914</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="258" spans="1:43">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B258" s="5">
         <v>35915</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="259" spans="1:43">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B259" s="5">
         <v>35917</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="260" spans="1:43">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B260" s="5">
         <v>35919</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="261" spans="1:43">
       <c r="A261" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B261" s="5">
         <v>35920</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="262" spans="1:43">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B262" s="5">
         <v>35921</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="263" spans="1:43">
       <c r="A263" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B263" s="5">
         <v>35922</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="264" spans="1:43">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B264" s="5">
         <v>35923</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="265" spans="1:43">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B265" s="5">
         <v>35924</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="266" spans="1:43">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B266" s="5">
         <v>35926</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="267" spans="1:43">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B267" s="5">
         <v>35928</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="268" spans="1:43">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B268" s="5">
         <v>35929</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="269" spans="1:43">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B269" s="5">
         <v>35930</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="270" spans="1:43">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B270" s="5">
         <v>35931</v>
@@ -8189,7 +8189,7 @@
         <v>2060</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F270" s="6">
         <v>100.061393549472</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="271" spans="1:43">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B271" s="5">
         <v>35933</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="272" spans="1:43">
       <c r="A272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B272" s="5">
         <v>35844</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="273" spans="1:36">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B273" s="5">
         <v>35846</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="274" spans="1:36">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B274" s="5">
         <v>35853</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="275" spans="1:36">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B275" s="5">
         <v>35858</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="276" spans="1:36">
       <c r="A276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B276" s="5">
         <v>35865</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="277" spans="1:36">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B277" s="5">
         <v>35866</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="278" spans="1:36">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B278" s="5">
         <v>35867</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="279" spans="1:36">
       <c r="A279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B279" s="5">
         <v>35868</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="280" spans="1:36">
       <c r="A280" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B280" s="5">
         <v>35871</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="281" spans="1:36">
       <c r="A281" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B281" s="5">
         <v>35877</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="282" spans="1:36">
       <c r="A282" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B282" s="5">
         <v>35878</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="283" spans="1:36">
       <c r="A283" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B283" s="5">
         <v>35879</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="284" spans="1:36">
       <c r="A284" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B284" s="5">
         <v>35880</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="285" spans="1:36">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B285" s="5">
         <v>35886</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="286" spans="1:36">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B286" s="5">
         <v>35887</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="287" spans="1:36">
       <c r="A287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B287" s="5">
         <v>35888</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="288" spans="1:36">
       <c r="A288" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B288" s="5">
         <v>35889</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="289" spans="1:42">
       <c r="A289" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B289" s="5">
         <v>35890</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="290" spans="1:42">
       <c r="A290" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B290" s="5">
         <v>35891</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="291" spans="1:42">
       <c r="A291" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B291" s="5">
         <v>35893</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="292" spans="1:42">
       <c r="A292" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B292" s="5">
         <v>35895</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="293" spans="1:42">
       <c r="A293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B293" s="5">
         <v>35899</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="294" spans="1:42">
       <c r="A294" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B294" s="5">
         <v>35903</v>
@@ -8881,7 +8881,7 @@
     </row>
     <row r="295" spans="1:42">
       <c r="A295" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B295" s="5">
         <v>35906</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="296" spans="1:42">
       <c r="A296" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B296" s="5">
         <v>35907</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="297" spans="1:42">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B297" s="5">
         <v>35910</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="298" spans="1:42">
       <c r="A298" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B298" s="5">
         <v>35914</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="299" spans="1:42">
       <c r="A299" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B299" s="5">
         <v>35918</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="300" spans="1:42">
       <c r="A300" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B300" s="5">
         <v>35919</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="301" spans="1:42">
       <c r="A301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B301" s="5">
         <v>35920</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="302" spans="1:42">
       <c r="A302" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B302" s="5">
         <v>35922</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="303" spans="1:42">
       <c r="A303" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B303" s="5">
         <v>35924</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="304" spans="1:42">
       <c r="A304" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B304" s="5">
         <v>35926</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="305" spans="1:43">
       <c r="A305" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B305" s="5">
         <v>35928</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="306" spans="1:43">
       <c r="A306" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B306" s="5">
         <v>35929</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="307" spans="1:43">
       <c r="A307" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B307" s="5">
         <v>35930</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="308" spans="1:43">
       <c r="A308" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B308" s="5">
         <v>35931</v>
@@ -9221,7 +9221,7 @@
         <v>2100</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F308" s="6">
         <v>100</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="309" spans="1:43">
       <c r="A309" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B309" s="5">
         <v>35932</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="310" spans="1:43">
       <c r="A310" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B310" s="5">
         <v>35933</v>

--- a/Prototypes/Mungbean/Exp4observed.xlsx
+++ b/Prototypes/Mungbean/Exp4observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A57356A-AB8A-4178-90B0-DBD94DA0EF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010DC08-D292-43EC-9578-8617CEF3E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFA1900E-73BA-4D12-BFCE-0E19FBB234D5}"/>
+    <workbookView xWindow="33330" yWindow="7005" windowWidth="20775" windowHeight="11835" xr2:uid="{DFA1900E-73BA-4D12-BFCE-0E19FBB234D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.DaysAfterSowing</t>
-  </si>
-  <si>
     <t>TotSW160</t>
   </si>
   <si>
@@ -77,15 +74,6 @@
     <t>SW150</t>
   </si>
   <si>
-    <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGroundLive.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Dead.Wt</t>
-  </si>
-  <si>
     <t>RadiationIntercepted</t>
   </si>
   <si>
@@ -101,43 +89,7 @@
     <t>Number of Green Pods</t>
   </si>
   <si>
-    <t>Soybean.Stem.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Pod.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Dead.Wt</t>
-  </si>
-  <si>
     <t>LiveOnlyHI</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.HarvestIndex</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGroundLive.N</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.EarlyPodDevelopmentDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.N</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.N</t>
   </si>
   <si>
     <t>LiveNHI</t>
@@ -146,19 +98,7 @@
     <t>NHI</t>
   </si>
   <si>
-    <t>Soybean.Stem.N</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Soybean.leaf.dead.N</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
   </si>
   <si>
     <t>exp4WaterIrrCultivarEmerald</t>
@@ -179,10 +119,70 @@
     <t>exp4SowSoybeanRFCultivarEmerald</t>
   </si>
   <si>
-    <t>Soybean.Leaf.Nodenumber</t>
+    <t>Mungbean.Phenology.CurrentStageName</t>
   </si>
   <si>
-    <t>Soybean.Phenology.AccumulatedTT</t>
+    <t>Mungbean.Phenology.AccumulatedTT</t>
+  </si>
+  <si>
+    <t>Mungbean.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Nodenumber</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGroundLive.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Dead.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Dead.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGroundLive.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.EarlyPodDevelopmentDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.N</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.N</t>
+  </si>
+  <si>
+    <t>Mungbean.leaf.dead.N</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AP310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -589,129 +589,129 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>35964</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5">
         <v>35952</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>35853</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>35833</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>35833</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
         <v>35833</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>35953</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8">
         <v>1679.7757921218872</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>35853</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <v>35963</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>35853</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>35915</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>35858</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>35915</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5">
         <v>35943</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>35858</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5">
         <v>35944</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>35858</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>35910</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>35952</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5">
         <v>35835</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>35836</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5">
         <v>35936</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>35915</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>35835</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>35943</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>35911</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
         <v>35842</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>35842</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5">
         <v>35926</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5">
         <v>35937</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5">
         <v>35866</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5">
         <v>35842</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5">
         <v>35937</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5">
         <v>35921</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B36" s="5">
         <v>35866</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5">
         <v>35927</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5">
         <v>35866</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5">
         <v>35926</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B40" s="5">
         <v>35921</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B41" s="5">
         <v>35871</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B42" s="5">
         <v>35922</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B43" s="5">
         <v>35847</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5">
         <v>35872</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B45" s="5">
         <v>35847</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B46" s="5">
         <v>35906</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B47" s="5">
         <v>35872</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B48" s="5">
         <v>35847</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B49" s="5">
         <v>35899</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B50" s="5">
         <v>35912</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B51" s="5">
         <v>35907</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5">
         <v>35878</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B53" s="5">
         <v>35891</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B54" s="5">
         <v>35911</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B55" s="5">
         <v>35900</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B56" s="5">
         <v>35907</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B57" s="5">
         <v>35886</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B58" s="5">
         <v>35878</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B59" s="5">
         <v>35911</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B60" s="5">
         <v>35892</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B61" s="5">
         <v>35886</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B62" s="5">
         <v>35877</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B63" s="5">
         <v>35886</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B64" s="5">
         <v>35892</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B65" s="5">
         <v>35899</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B66" s="5">
         <v>35856</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B67" s="5">
         <v>35899</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B68" s="5">
         <v>35899</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B69" s="5">
         <v>35855</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B70" s="5">
         <v>35855</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B71" s="5">
         <v>35894</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B72" s="5">
         <v>35887</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B73" s="5">
         <v>35895</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B74" s="5">
         <v>35880</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B75" s="5">
         <v>35888</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B76" s="5">
         <v>35860</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B77" s="5">
         <v>35900</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B78" s="5">
         <v>35880</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B79" s="5">
         <v>35860</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B80" s="5">
         <v>35875</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B81" s="5">
         <v>35894</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B82" s="5">
         <v>35888</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B83" s="5">
         <v>35875</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B84" s="5">
         <v>35880</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B85" s="5">
         <v>35866</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B86" s="5">
         <v>35860</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B87" s="5">
         <v>35875</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="88" spans="1:35" ht="13.5" customHeight="1">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B88" s="5">
         <v>35866</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B89" s="5">
         <v>35867</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B90" s="5">
         <v>35867</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B91" s="5">
         <v>35868</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B92" s="5">
         <v>35878</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B93" s="5">
         <v>35879</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="94" spans="1:35">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B94" s="5">
         <v>35888</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B95" s="5">
         <v>35889</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="96" spans="1:35">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B96" s="5">
         <v>35890</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B97" s="5">
         <v>35893</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="98" spans="1:35">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B98" s="5">
         <v>35894</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B99" s="5">
         <v>35896</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="100" spans="1:35">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B100" s="5">
         <v>35901</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B101" s="5">
         <v>35902</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="102" spans="1:35">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B102" s="5">
         <v>35903</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="103" spans="1:35">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B103" s="5">
         <v>35905</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B104" s="5">
         <v>35906</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="105" spans="1:35">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B105" s="5">
         <v>35909</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="106" spans="1:35">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B106" s="5">
         <v>35910</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="107" spans="1:35">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B107" s="5">
         <v>35914</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B108" s="5">
         <v>35917</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="109" spans="1:35">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B109" s="5">
         <v>35919</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B110" s="5">
         <v>35920</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="111" spans="1:35">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B111" s="5">
         <v>35922</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B112" s="5">
         <v>35923</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B113" s="5">
         <v>35925</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B114" s="5">
         <v>35928</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B115" s="5">
         <v>35930</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B116" s="5">
         <v>35932</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B117" s="5">
         <v>35933</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B118" s="5">
         <v>35934</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B119" s="5">
         <v>35935</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B120" s="5">
         <v>35938</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B121" s="5">
         <v>35942</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B122" s="5">
         <v>35943</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B123" s="5">
         <v>35945</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B124" s="5">
         <v>35947</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B125" s="5">
         <v>35948</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B126" s="5">
         <v>35949</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B127" s="5">
         <v>35950</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B128" s="5">
         <v>35951</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="129" spans="1:35">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B129" s="5">
         <v>35960</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="130" spans="1:35">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B130" s="5">
         <v>35961</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="131" spans="1:35">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B131" s="5">
         <v>35962</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="132" spans="1:35">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B132" s="5">
         <v>35865</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="133" spans="1:35">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B133" s="5">
         <v>35867</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="134" spans="1:35">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B134" s="5">
         <v>35868</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="135" spans="1:35">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B135" s="5">
         <v>35871</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="136" spans="1:35">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B136" s="5">
         <v>35877</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="137" spans="1:35">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B137" s="5">
         <v>35879</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="138" spans="1:35">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B138" s="5">
         <v>35880</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="139" spans="1:35">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B139" s="5">
         <v>35888</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="140" spans="1:35">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B140" s="5">
         <v>35889</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="141" spans="1:35">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B141" s="5">
         <v>35890</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="142" spans="1:35">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B142" s="5">
         <v>35893</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="143" spans="1:35">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B143" s="5">
         <v>35896</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="144" spans="1:35">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B144" s="5">
         <v>35902</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B145" s="5">
         <v>35904</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B146" s="5">
         <v>35907</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B147" s="5">
         <v>35911</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B148" s="5">
         <v>35912</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B149" s="5">
         <v>35915</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B150" s="5">
         <v>35916</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B151" s="5">
         <v>35917</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B152" s="5">
         <v>35919</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B153" s="5">
         <v>35922</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B154" s="5">
         <v>35923</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B155" s="5">
         <v>35925</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B156" s="5">
         <v>35927</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B157" s="5">
         <v>35930</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B158" s="5">
         <v>35931</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B159" s="5">
         <v>35932</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B160" s="5">
         <v>35933</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="161" spans="1:42">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B161" s="5">
         <v>35934</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="162" spans="1:42">
       <c r="A162" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B162" s="5">
         <v>35935</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="163" spans="1:42">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B163" s="5">
         <v>35939</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="164" spans="1:42">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B164" s="5">
         <v>35940</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="165" spans="1:42">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B165" s="5">
         <v>35944</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="166" spans="1:42">
       <c r="A166" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B166" s="5">
         <v>35945</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="167" spans="1:42">
       <c r="A167" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B167" s="5">
         <v>35946</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="168" spans="1:42">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B168" s="5">
         <v>35947</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="169" spans="1:42">
       <c r="A169" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B169" s="5">
         <v>35948</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="170" spans="1:42">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B170" s="5">
         <v>35949</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="171" spans="1:42">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B171" s="5">
         <v>35950</v>
@@ -5618,13 +5618,13 @@
     </row>
     <row r="172" spans="1:42">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B172" s="5">
         <v>35953</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E172" s="6">
         <v>122</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="173" spans="1:42">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B173" s="5">
         <v>35954</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="174" spans="1:42">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B174" s="5">
         <v>35955</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="175" spans="1:42">
       <c r="A175" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B175" s="5">
         <v>35959</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="176" spans="1:42">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B176" s="5">
         <v>35960</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="177" spans="1:35">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B177" s="5">
         <v>35961</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="178" spans="1:35">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B178" s="5">
         <v>35962</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="179" spans="1:35">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B179" s="5">
         <v>35963</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="180" spans="1:35">
       <c r="A180" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B180" s="5">
         <v>35865</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="181" spans="1:35">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B181" s="5">
         <v>35867</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="182" spans="1:35">
       <c r="A182" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B182" s="5">
         <v>35868</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="183" spans="1:35">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B183" s="5">
         <v>35871</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="184" spans="1:35">
       <c r="A184" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B184" s="5">
         <v>35877</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="185" spans="1:35">
       <c r="A185" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B185" s="5">
         <v>35880</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="186" spans="1:35">
       <c r="A186" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B186" s="5">
         <v>35888</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="187" spans="1:35">
       <c r="A187" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B187" s="5">
         <v>35889</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="188" spans="1:35">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B188" s="5">
         <v>35891</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="189" spans="1:35">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B189" s="5">
         <v>35893</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="190" spans="1:35">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B190" s="5">
         <v>35902</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="191" spans="1:35">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B191" s="5">
         <v>35904</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="192" spans="1:35">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B192" s="5">
         <v>35906</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B193" s="5">
         <v>35913</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B194" s="5">
         <v>35917</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B195" s="5">
         <v>35919</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B196" s="5">
         <v>35920</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B197" s="5">
         <v>35921</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B198" s="5">
         <v>35924</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B199" s="5">
         <v>35931</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B200" s="5">
         <v>35932</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B201" s="5">
         <v>35933</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B202" s="5">
         <v>35934</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B203" s="5">
         <v>35935</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B204" s="5">
         <v>35936</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B205" s="5">
         <v>35944</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B206" s="5">
         <v>35945</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B207" s="5">
         <v>35947</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B208" s="5">
         <v>35948</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="209" spans="1:42">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B209" s="5">
         <v>35949</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="210" spans="1:42">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B210" s="5">
         <v>35953</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E210" s="6">
         <v>122</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="211" spans="1:42">
       <c r="A211" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B211" s="5">
         <v>35960</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="212" spans="1:42">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B212" s="5">
         <v>35961</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="213" spans="1:42">
       <c r="A213" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B213" s="5">
         <v>35962</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="214" spans="1:42">
       <c r="A214" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B214" s="5">
         <v>35965</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="215" spans="1:42">
       <c r="A215" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B215" s="5">
         <v>35856</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="216" spans="1:42">
       <c r="A216" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B216" s="5">
         <v>35858</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="217" spans="1:42">
       <c r="A217" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B217" s="5">
         <v>35863</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="218" spans="1:42">
       <c r="A218" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B218" s="5">
         <v>35866</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="219" spans="1:42">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B219" s="5">
         <v>35868</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="220" spans="1:42">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B220" s="5">
         <v>35869</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="221" spans="1:42">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B221" s="5">
         <v>35871</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="222" spans="1:42">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B222" s="5">
         <v>35876</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="223" spans="1:42">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B223" s="5">
         <v>35877</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="224" spans="1:42">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B224" s="5">
         <v>35878</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="225" spans="1:35">
       <c r="A225" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B225" s="5">
         <v>35879</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="226" spans="1:35">
       <c r="A226" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B226" s="5">
         <v>35882</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="227" spans="1:35">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B227" s="5">
         <v>35883</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="228" spans="1:35">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B228" s="5">
         <v>35885</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="229" spans="1:35">
       <c r="A229" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B229" s="5">
         <v>35891</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="230" spans="1:35">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B230" s="5">
         <v>35892</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="231" spans="1:35">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B231" s="5">
         <v>35895</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="232" spans="1:35">
       <c r="A232" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B232" s="5">
         <v>35896</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="233" spans="1:35">
       <c r="A233" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B233" s="5">
         <v>35898</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="234" spans="1:35">
       <c r="A234" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B234" s="5">
         <v>35903</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="235" spans="1:35">
       <c r="A235" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B235" s="5">
         <v>35904</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="236" spans="1:35">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B236" s="5">
         <v>35906</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="237" spans="1:35">
       <c r="A237" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B237" s="5">
         <v>35908</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="238" spans="1:35">
       <c r="A238" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B238" s="5">
         <v>35909</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="239" spans="1:35">
       <c r="A239" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B239" s="5">
         <v>35910</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="240" spans="1:35">
       <c r="A240" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B240" s="5">
         <v>35913</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="241" spans="1:42">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B241" s="5">
         <v>35916</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="242" spans="1:42">
       <c r="A242" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B242" s="5">
         <v>35917</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="243" spans="1:42">
       <c r="A243" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B243" s="5">
         <v>35918</v>
@@ -7617,13 +7617,13 @@
     </row>
     <row r="244" spans="1:42">
       <c r="A244" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B244" s="5">
         <v>35920</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E244" s="6">
         <v>100</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="245" spans="1:42">
       <c r="A245" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B245" s="5">
         <v>35921</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="246" spans="1:42">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B246" s="5">
         <v>35923</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="247" spans="1:42">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B247" s="5">
         <v>35854</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="248" spans="1:42">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B248" s="5">
         <v>35855</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="249" spans="1:42">
       <c r="A249" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B249" s="5">
         <v>35857</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="250" spans="1:42">
       <c r="A250" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B250" s="5">
         <v>35858</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="251" spans="1:42">
       <c r="A251" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B251" s="5">
         <v>35863</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="252" spans="1:42">
       <c r="A252" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B252" s="5">
         <v>35865</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="253" spans="1:42">
       <c r="A253" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B253" s="5">
         <v>35867</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="254" spans="1:42">
       <c r="A254" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B254" s="5">
         <v>35868</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="255" spans="1:42">
       <c r="A255" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B255" s="5">
         <v>35869</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="256" spans="1:42">
       <c r="A256" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B256" s="5">
         <v>35870</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B257" s="5">
         <v>35871</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B258" s="5">
         <v>35876</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B259" s="5">
         <v>35877</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B260" s="5">
         <v>35878</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B261" s="5">
         <v>35879</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B262" s="5">
         <v>35881</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B263" s="5">
         <v>35882</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B264" s="5">
         <v>35884</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B265" s="5">
         <v>35885</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B266" s="5">
         <v>35891</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B267" s="5">
         <v>35892</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B268" s="5">
         <v>35893</v>
@@ -8321,7 +8321,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B269" s="5">
         <v>35895</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B270" s="5">
         <v>35896</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B271" s="5">
         <v>35897</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B272" s="5">
         <v>35898</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="273" spans="1:42">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B273" s="5">
         <v>35903</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="274" spans="1:42">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B274" s="5">
         <v>35904</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="275" spans="1:42">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B275" s="5">
         <v>35906</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="276" spans="1:42">
       <c r="A276" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B276" s="5">
         <v>35908</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="277" spans="1:42">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B277" s="5">
         <v>35909</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="278" spans="1:42">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B278" s="5">
         <v>35911</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="279" spans="1:42">
       <c r="A279" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B279" s="5">
         <v>35912</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="280" spans="1:42">
       <c r="A280" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B280" s="5">
         <v>35913</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="281" spans="1:42">
       <c r="A281" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B281" s="5">
         <v>35917</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="282" spans="1:42">
       <c r="A282" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B282" s="5">
         <v>35918</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="283" spans="1:42">
       <c r="A283" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B283" s="5">
         <v>35919</v>
@@ -8759,13 +8759,13 @@
     </row>
     <row r="284" spans="1:42">
       <c r="A284" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B284" s="5">
         <v>35920</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E284" s="6">
         <v>100.061393549472</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="285" spans="1:42">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B285" s="5">
         <v>35922</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="286" spans="1:42">
       <c r="A286" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B286" s="5">
         <v>35854</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="287" spans="1:42">
       <c r="A287" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B287" s="5">
         <v>35856</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="288" spans="1:42">
       <c r="A288" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B288" s="5">
         <v>35857</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B289" s="5">
         <v>35867</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B290" s="5">
         <v>35868</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B291" s="5">
         <v>35869</v>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B292" s="5">
         <v>35876</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B293" s="5">
         <v>35877</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B294" s="5">
         <v>35878</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B295" s="5">
         <v>35879</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B296" s="5">
         <v>35882</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B297" s="5">
         <v>35884</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B298" s="5">
         <v>35892</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B299" s="5">
         <v>35896</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B300" s="5">
         <v>35903</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B301" s="5">
         <v>35907</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B302" s="5">
         <v>35908</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B303" s="5">
         <v>35909</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B304" s="5">
         <v>35913</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="305" spans="1:42">
       <c r="A305" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B305" s="5">
         <v>35917</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="306" spans="1:42">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B306" s="5">
         <v>35918</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="307" spans="1:42">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B307" s="5">
         <v>35919</v>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="308" spans="1:42">
       <c r="A308" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B308" s="5">
         <v>35920</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E308" s="6">
         <v>100</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="309" spans="1:42">
       <c r="A309" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B309" s="5">
         <v>35921</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="310" spans="1:42">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B310" s="5">
         <v>35922</v>
